--- a/Material de Apoyo/SolucioiÌn calculos exaiÌmen.xlsx
+++ b/Material de Apoyo/SolucioiÌn calculos exaiÌmen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulise\Documents\UV\9° semestre\GTS\Material de Apoyo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulise\Documents\UV\9 semestre\GTS\Material de Apoyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8637736-3F57-4E7F-B950-50D0CE5FABDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC67EC4-12DC-49CF-9545-977A4E91CE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2AA86D61-9D76-B74F-AA0D-E6B0A4E37F32}"/>
   </bookViews>
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52EDCC2-98A0-234B-B823-E37B4CA5F8D0}">
   <dimension ref="AH3:BY1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1:CJ20"/>
+    <sheetView tabSelected="1" topLeftCell="AG7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BW24" sqref="BW24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
